--- a/1440/1440-TestCase.xlsx
+++ b/1440/1440-TestCase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chuyên đề web1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\28-cdptw1-2\1440\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>VERSION</t>
   </si>
@@ -424,6 +424,9 @@
     <t>Chuyên Đề Phát Triển Web 1</t>
   </si>
   <si>
+    <t>139</t>
+  </si>
+  <si>
     <t>Device</t>
   </si>
   <si>
@@ -451,94 +454,71 @@
     <t>Mobie</t>
   </si>
   <si>
+    <t>Hình 1</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Hình 2</t>
+  </si>
+  <si>
+    <t>- Giao diện chung</t>
+  </si>
+  <si>
+    <t>Hình 3</t>
+  </si>
+  <si>
     <t>Trang</t>
   </si>
   <si>
     <t>Fix bug on Chrome</t>
   </si>
   <si>
-    <t>1450</t>
-  </si>
-  <si>
-    <t>- Screen 1450</t>
-  </si>
-  <si>
-    <t>- All data</t>
-  </si>
-  <si>
-    <t>Hình 1</t>
-  </si>
-  <si>
-    <t>- Click vào thẻ a</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>Hình2</t>
-  </si>
-  <si>
-    <t>Hình3</t>
-  </si>
-  <si>
-    <t>- Canh trái, canh phải cho nội dung, sự kiện hover khi nhấp chuột</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>- Layout</t>
-  </si>
-  <si>
-    <t>- CSS lại nguyên layout cho giao diện đẹp hơn</t>
-  </si>
-  <si>
-    <t>Hình4</t>
-  </si>
-  <si>
-    <t>Block 1450_1455</t>
-  </si>
-  <si>
-    <t>1450_1455</t>
-  </si>
-  <si>
-    <t>1455</t>
-  </si>
-  <si>
-    <t>- Chỉnh sửa Layout đẹp hơn</t>
-  </si>
-  <si>
-    <t>- Layout không có gì</t>
-  </si>
-  <si>
-    <t>- Screen 1455</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Hình 5</t>
-  </si>
-  <si>
-    <t>Hình6</t>
-  </si>
-  <si>
-    <t>Hình5</t>
+    <t>- Khi thu nhỏ màn hình lại</t>
+  </si>
+  <si>
+    <t>- Chạy trên di động</t>
+  </si>
+  <si>
+    <t>- Sẽ thu nhỏ theo kích thước màn hình</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Block 1440</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>Module_1440</t>
+  </si>
+  <si>
+    <t>- Cho người dùng trượt qua lại, nhấp next và trở về</t>
+  </si>
+  <si>
+    <t>- Chữ vẫn theo background.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,13 +644,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,75 +880,75 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -977,335 +957,352 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1337,13 +1334,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1354,8 +1351,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1149350" y="1457325"/>
-          <a:ext cx="8636000" cy="1209675"/>
+          <a:off x="1130300" y="1470660"/>
+          <a:ext cx="8483600" cy="1263015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1387,7 +1384,7 @@
               <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="1" charset="-128"/>
               <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="1" charset="-128"/>
             </a:rPr>
-            <a:t>BLOCK 1450_1455</a:t>
+            <a:t>BLOCK 1440</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1493,33 +1490,34 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>455573</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="-2" t="4688" r="22318" b="54161"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1019175" y="504825"/>
-          <a:ext cx="10106025" cy="3009900"/>
+          <a:off x="1714499" y="923926"/>
+          <a:ext cx="8808999" cy="2933699"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1531,15 +1529,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1550,13 +1548,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="-2783" t="5079" r="21660" b="38143"/>
+        <a:srcRect l="-1" r="688" b="5271"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="771525" y="4305300"/>
-          <a:ext cx="10553700" cy="4152900"/>
+          <a:off x="1485900" y="10401300"/>
+          <a:ext cx="8839200" cy="5476875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1567,16 +1565,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1587,132 +1585,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect t="4817" r="21586" b="51557"/>
+        <a:srcRect l="-1810" t="-1593" r="1564" b="8366"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143001" y="9201150"/>
-          <a:ext cx="10201274" cy="3190875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect l="-328" t="-1173" r="461" b="4949"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1181100" y="13220699"/>
-          <a:ext cx="10020300" cy="6172201"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1257300" y="20231100"/>
-          <a:ext cx="9144000" cy="5133975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1209674" y="25717500"/>
-          <a:ext cx="9620251" cy="5086350"/>
+          <a:off x="1781175" y="4610100"/>
+          <a:ext cx="8439150" cy="4457700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2223,7 +2102,7 @@
   <dimension ref="A1:BG38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE20" sqref="AE20"/>
+      <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="14.1" customHeight="1"/>
@@ -3176,35 +3055,35 @@
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
       <c r="Z17" s="37"/>
       <c r="AA17" s="37"/>
       <c r="AB17" s="37"/>
       <c r="AC17" s="37"/>
       <c r="AD17" s="37"/>
       <c r="AE17" s="37"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="50"/>
-      <c r="AI17" s="50"/>
-      <c r="AJ17" s="50"/>
-      <c r="AK17" s="50"/>
-      <c r="AL17" s="50"/>
-      <c r="AM17" s="50"/>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="50"/>
-      <c r="AQ17" s="50"/>
-      <c r="AR17" s="50"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+      <c r="AL17" s="49"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="49"/>
+      <c r="AP17" s="49"/>
+      <c r="AQ17" s="49"/>
+      <c r="AR17" s="49"/>
       <c r="AS17" s="37"/>
       <c r="AT17" s="37"/>
       <c r="AU17" s="37"/>
@@ -3412,16 +3291,16 @@
       <c r="M21" s="37"/>
       <c r="N21" s="37"/>
       <c r="O21" s="37"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
       <c r="Z21" s="37"/>
       <c r="AA21" s="37"/>
       <c r="AB21" s="37"/>
@@ -4465,7 +4344,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="13.5"/>
@@ -4480,7 +4359,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="11" customFormat="1" ht="24">
       <c r="A1" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16" t="s">
@@ -4508,14 +4387,14 @@
       <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>52</v>
+      <c r="B3" s="47" t="s">
+        <v>58</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D3" s="25">
-        <v>43725</v>
+        <v>43722</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -4672,8 +4551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI15"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="E13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BA15" sqref="BA15:BH15"/>
+    <sheetView view="pageBreakPreview" topLeftCell="G11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BA12" sqref="BA12:BH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
@@ -4686,287 +4565,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="133" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
-      <c r="AH1" s="127"/>
-      <c r="AI1" s="128"/>
-      <c r="AJ1" s="134" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="137" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="132"/>
+      <c r="AJ1" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="135"/>
-      <c r="AL1" s="135"/>
-      <c r="AM1" s="135"/>
-      <c r="AN1" s="136" t="s">
+      <c r="AK1" s="139"/>
+      <c r="AL1" s="139"/>
+      <c r="AM1" s="139"/>
+      <c r="AN1" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="135"/>
-      <c r="AQ1" s="135"/>
-      <c r="AR1" s="135"/>
-      <c r="AS1" s="136" t="s">
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="139"/>
+      <c r="AQ1" s="139"/>
+      <c r="AR1" s="139"/>
+      <c r="AS1" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="AT1" s="135"/>
-      <c r="AU1" s="135"/>
-      <c r="AV1" s="135"/>
-      <c r="AW1" s="113" t="s">
+      <c r="AT1" s="139"/>
+      <c r="AU1" s="139"/>
+      <c r="AV1" s="139"/>
+      <c r="AW1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="114"/>
-      <c r="AY1" s="114"/>
-      <c r="AZ1" s="115"/>
-      <c r="BA1" s="125" t="s">
+      <c r="AX1" s="118"/>
+      <c r="AY1" s="118"/>
+      <c r="AZ1" s="119"/>
+      <c r="BA1" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="BB1" s="125"/>
-      <c r="BC1" s="125"/>
-      <c r="BD1" s="125"/>
-      <c r="BE1" s="125"/>
-      <c r="BF1" s="125"/>
-      <c r="BG1" s="125"/>
-      <c r="BH1" s="125"/>
+      <c r="BB1" s="129"/>
+      <c r="BC1" s="129"/>
+      <c r="BD1" s="129"/>
+      <c r="BE1" s="129"/>
+      <c r="BF1" s="129"/>
+      <c r="BG1" s="129"/>
+      <c r="BH1" s="129"/>
       <c r="BI1" s="7"/>
     </row>
     <row r="2" spans="1:61">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="127"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="129" t="s">
+      <c r="A2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="131"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="132"/>
+      <c r="AJ2" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="130"/>
-      <c r="AL2" s="130"/>
-      <c r="AM2" s="130"/>
-      <c r="AN2" s="131">
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="135">
         <f>COUNTIF($AR:$AR,"N/A")</f>
-        <v>1</v>
-      </c>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="130"/>
-      <c r="AQ2" s="130"/>
-      <c r="AR2" s="130"/>
-      <c r="AS2" s="131">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="133"/>
+      <c r="AP2" s="134"/>
+      <c r="AQ2" s="134"/>
+      <c r="AR2" s="134"/>
+      <c r="AS2" s="135">
         <f>COUNTIF($AR:$AR,"NG")</f>
         <v>2</v>
       </c>
-      <c r="AT2" s="130"/>
-      <c r="AU2" s="130"/>
-      <c r="AV2" s="130"/>
-      <c r="AW2" s="113" t="s">
+      <c r="AT2" s="134"/>
+      <c r="AU2" s="134"/>
+      <c r="AV2" s="134"/>
+      <c r="AW2" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" s="114"/>
-      <c r="AY2" s="114"/>
-      <c r="AZ2" s="115"/>
-      <c r="BA2" s="132" t="s">
+      <c r="AX2" s="118"/>
+      <c r="AY2" s="118"/>
+      <c r="AZ2" s="119"/>
+      <c r="BA2" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="BB2" s="125"/>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
+      <c r="BB2" s="129"/>
+      <c r="BC2" s="129"/>
+      <c r="BD2" s="129"/>
+      <c r="BE2" s="129"/>
+      <c r="BF2" s="129"/>
+      <c r="BG2" s="129"/>
+      <c r="BH2" s="129"/>
       <c r="BI2" s="7"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="113" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="114"/>
-      <c r="AM3" s="115"/>
-      <c r="AN3" s="116"/>
-      <c r="AO3" s="117"/>
-      <c r="AP3" s="117"/>
-      <c r="AQ3" s="117"/>
-      <c r="AR3" s="117"/>
-      <c r="AS3" s="117"/>
-      <c r="AT3" s="117"/>
-      <c r="AU3" s="117"/>
-      <c r="AV3" s="118"/>
-      <c r="AW3" s="113"/>
-      <c r="AX3" s="114"/>
-      <c r="AY3" s="114"/>
-      <c r="AZ3" s="115"/>
-      <c r="BA3" s="116"/>
-      <c r="BB3" s="117"/>
-      <c r="BC3" s="117"/>
-      <c r="BD3" s="117"/>
-      <c r="BE3" s="117"/>
-      <c r="BF3" s="117"/>
-      <c r="BG3" s="117"/>
-      <c r="BH3" s="118"/>
+      <c r="AK3" s="118"/>
+      <c r="AL3" s="118"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="120"/>
+      <c r="AO3" s="121"/>
+      <c r="AP3" s="121"/>
+      <c r="AQ3" s="121"/>
+      <c r="AR3" s="121"/>
+      <c r="AS3" s="121"/>
+      <c r="AT3" s="121"/>
+      <c r="AU3" s="121"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="117"/>
+      <c r="AX3" s="118"/>
+      <c r="AY3" s="118"/>
+      <c r="AZ3" s="119"/>
+      <c r="BA3" s="120"/>
+      <c r="BB3" s="121"/>
+      <c r="BC3" s="121"/>
+      <c r="BD3" s="121"/>
+      <c r="BE3" s="121"/>
+      <c r="BF3" s="121"/>
+      <c r="BG3" s="121"/>
+      <c r="BH3" s="122"/>
       <c r="BI3" s="7"/>
     </row>
     <row r="4" spans="1:61">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="91"/>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="91"/>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="119" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="AK4" s="120"/>
-      <c r="AL4" s="120"/>
-      <c r="AM4" s="121"/>
-      <c r="AN4" s="122"/>
-      <c r="AO4" s="123"/>
-      <c r="AP4" s="123"/>
-      <c r="AQ4" s="123"/>
-      <c r="AR4" s="123"/>
-      <c r="AS4" s="123"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="123"/>
-      <c r="AV4" s="124"/>
-      <c r="AW4" s="119" t="s">
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="125"/>
+      <c r="AN4" s="126"/>
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="127"/>
+      <c r="AQ4" s="127"/>
+      <c r="AR4" s="127"/>
+      <c r="AS4" s="127"/>
+      <c r="AT4" s="127"/>
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="128"/>
+      <c r="AW4" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="AX4" s="120"/>
-      <c r="AY4" s="120"/>
-      <c r="AZ4" s="121"/>
-      <c r="BA4" s="122"/>
-      <c r="BB4" s="123"/>
-      <c r="BC4" s="123"/>
-      <c r="BD4" s="123"/>
-      <c r="BE4" s="123"/>
-      <c r="BF4" s="123"/>
-      <c r="BG4" s="123"/>
-      <c r="BH4" s="124"/>
+      <c r="AX4" s="124"/>
+      <c r="AY4" s="124"/>
+      <c r="AZ4" s="125"/>
+      <c r="BA4" s="126"/>
+      <c r="BB4" s="127"/>
+      <c r="BC4" s="127"/>
+      <c r="BD4" s="127"/>
+      <c r="BE4" s="127"/>
+      <c r="BF4" s="127"/>
+      <c r="BG4" s="127"/>
+      <c r="BH4" s="128"/>
     </row>
     <row r="5" spans="1:61" s="2" customFormat="1">
       <c r="A5" s="6"/>
@@ -5032,717 +4911,699 @@
       <c r="BI5" s="6"/>
     </row>
     <row r="6" spans="1:61" ht="14.25">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="107" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="95" t="s">
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="95" t="s">
+      <c r="U6" s="100"/>
+      <c r="V6" s="100"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="100"/>
+      <c r="Y6" s="100"/>
+      <c r="Z6" s="100"/>
+      <c r="AA6" s="100"/>
+      <c r="AB6" s="101"/>
+      <c r="AC6" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="96"/>
-      <c r="AE6" s="96"/>
-      <c r="AF6" s="96"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="96"/>
-      <c r="AI6" s="96"/>
-      <c r="AJ6" s="96"/>
-      <c r="AK6" s="96"/>
-      <c r="AL6" s="96"/>
-      <c r="AM6" s="97"/>
-      <c r="AN6" s="95" t="s">
+      <c r="AD6" s="100"/>
+      <c r="AE6" s="100"/>
+      <c r="AF6" s="100"/>
+      <c r="AG6" s="100"/>
+      <c r="AH6" s="100"/>
+      <c r="AI6" s="100"/>
+      <c r="AJ6" s="100"/>
+      <c r="AK6" s="100"/>
+      <c r="AL6" s="100"/>
+      <c r="AM6" s="101"/>
+      <c r="AN6" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="AO6" s="96"/>
-      <c r="AP6" s="96"/>
-      <c r="AQ6" s="97"/>
-      <c r="AR6" s="95" t="s">
+      <c r="AO6" s="100"/>
+      <c r="AP6" s="100"/>
+      <c r="AQ6" s="101"/>
+      <c r="AR6" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="AS6" s="96"/>
-      <c r="AT6" s="97"/>
-      <c r="AU6" s="95" t="s">
+      <c r="AS6" s="100"/>
+      <c r="AT6" s="101"/>
+      <c r="AU6" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="AV6" s="96"/>
-      <c r="AW6" s="97"/>
-      <c r="AX6" s="95" t="s">
+      <c r="AV6" s="100"/>
+      <c r="AW6" s="101"/>
+      <c r="AX6" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="AY6" s="96"/>
-      <c r="AZ6" s="97"/>
-      <c r="BA6" s="112" t="s">
+      <c r="AY6" s="100"/>
+      <c r="AZ6" s="101"/>
+      <c r="BA6" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="BB6" s="112"/>
-      <c r="BC6" s="112"/>
-      <c r="BD6" s="112"/>
-      <c r="BE6" s="112"/>
-      <c r="BF6" s="112"/>
-      <c r="BG6" s="112"/>
-      <c r="BH6" s="112"/>
+      <c r="BB6" s="116"/>
+      <c r="BC6" s="116"/>
+      <c r="BD6" s="116"/>
+      <c r="BE6" s="116"/>
+      <c r="BF6" s="116"/>
+      <c r="BG6" s="116"/>
+      <c r="BH6" s="116"/>
       <c r="BI6" s="8"/>
     </row>
     <row r="7" spans="1:61" s="3" customFormat="1" ht="14.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="109" t="s">
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="111" t="s">
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="99"/>
-      <c r="AI7" s="99"/>
-      <c r="AJ7" s="99"/>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="99"/>
-      <c r="AM7" s="100"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="99"/>
-      <c r="AP7" s="99"/>
-      <c r="AQ7" s="100"/>
-      <c r="AR7" s="98"/>
-      <c r="AS7" s="99"/>
-      <c r="AT7" s="100"/>
-      <c r="AU7" s="98"/>
-      <c r="AV7" s="99"/>
-      <c r="AW7" s="100"/>
-      <c r="AX7" s="98"/>
-      <c r="AY7" s="99"/>
-      <c r="AZ7" s="100"/>
-      <c r="BA7" s="112"/>
-      <c r="BB7" s="112"/>
-      <c r="BC7" s="112"/>
-      <c r="BD7" s="112"/>
-      <c r="BE7" s="112"/>
-      <c r="BF7" s="112"/>
-      <c r="BG7" s="112"/>
-      <c r="BH7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="104"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="103"/>
+      <c r="AF7" s="103"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="103"/>
+      <c r="AI7" s="103"/>
+      <c r="AJ7" s="103"/>
+      <c r="AK7" s="103"/>
+      <c r="AL7" s="103"/>
+      <c r="AM7" s="104"/>
+      <c r="AN7" s="102"/>
+      <c r="AO7" s="103"/>
+      <c r="AP7" s="103"/>
+      <c r="AQ7" s="104"/>
+      <c r="AR7" s="102"/>
+      <c r="AS7" s="103"/>
+      <c r="AT7" s="104"/>
+      <c r="AU7" s="102"/>
+      <c r="AV7" s="103"/>
+      <c r="AW7" s="104"/>
+      <c r="AX7" s="102"/>
+      <c r="AY7" s="103"/>
+      <c r="AZ7" s="104"/>
+      <c r="BA7" s="116"/>
+      <c r="BB7" s="116"/>
+      <c r="BC7" s="116"/>
+      <c r="BD7" s="116"/>
+      <c r="BE7" s="116"/>
+      <c r="BF7" s="116"/>
+      <c r="BG7" s="116"/>
+      <c r="BH7" s="116"/>
       <c r="BI7" s="9"/>
     </row>
     <row r="8" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A8" s="63">
+      <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="67" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="75"/>
+      <c r="AP8" s="75"/>
+      <c r="AQ8" s="76"/>
+      <c r="AR8" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="73" t="s">
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="76"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="76"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="76"/>
+      <c r="BA8" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB8" s="106"/>
+      <c r="BC8" s="106"/>
+      <c r="BD8" s="106"/>
+      <c r="BE8" s="106"/>
+      <c r="BF8" s="106"/>
+      <c r="BG8" s="106"/>
+      <c r="BH8" s="107"/>
+      <c r="BI8" s="10"/>
+    </row>
+    <row r="9" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="55"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="79"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="79"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="79"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="79"/>
+      <c r="BA9" s="108"/>
+      <c r="BB9" s="109"/>
+      <c r="BC9" s="109"/>
+      <c r="BD9" s="109"/>
+      <c r="BE9" s="109"/>
+      <c r="BF9" s="109"/>
+      <c r="BG9" s="109"/>
+      <c r="BH9" s="110"/>
+      <c r="BI9" s="10"/>
+    </row>
+    <row r="10" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A10" s="56">
+        <v>2</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="52"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="58"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="58"/>
-      <c r="AI8" s="58"/>
-      <c r="AJ8" s="58"/>
-      <c r="AK8" s="58"/>
-      <c r="AL8" s="58"/>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="52"/>
-      <c r="AP8" s="52"/>
-      <c r="AQ8" s="53"/>
-      <c r="AR8" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS8" s="52"/>
-      <c r="AT8" s="53"/>
-      <c r="AU8" s="51"/>
-      <c r="AV8" s="52"/>
-      <c r="AW8" s="53"/>
-      <c r="AX8" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY8" s="52"/>
-      <c r="AZ8" s="53"/>
-      <c r="BA8" s="101" t="s">
+      <c r="BB10" s="106"/>
+      <c r="BC10" s="106"/>
+      <c r="BD10" s="106"/>
+      <c r="BE10" s="106"/>
+      <c r="BF10" s="106"/>
+      <c r="BG10" s="106"/>
+      <c r="BH10" s="107"/>
+      <c r="BI10" s="10"/>
+    </row>
+    <row r="11" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="54"/>
+      <c r="AI11" s="54"/>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="54"/>
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="78"/>
+      <c r="AP11" s="78"/>
+      <c r="AQ11" s="79"/>
+      <c r="AR11" s="77"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="79"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="78"/>
+      <c r="AW11" s="79"/>
+      <c r="AX11" s="77"/>
+      <c r="AY11" s="78"/>
+      <c r="AZ11" s="79"/>
+      <c r="BA11" s="108"/>
+      <c r="BB11" s="109"/>
+      <c r="BC11" s="109"/>
+      <c r="BD11" s="109"/>
+      <c r="BE11" s="109"/>
+      <c r="BF11" s="109"/>
+      <c r="BG11" s="109"/>
+      <c r="BH11" s="110"/>
+      <c r="BI11" s="10"/>
+    </row>
+    <row r="12" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A12" s="56">
+        <v>3</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="52"/>
+      <c r="AN12" s="74"/>
+      <c r="AO12" s="75"/>
+      <c r="AP12" s="75"/>
+      <c r="AQ12" s="76"/>
+      <c r="AR12" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS12" s="75"/>
+      <c r="AT12" s="76"/>
+      <c r="AU12" s="74"/>
+      <c r="AV12" s="75"/>
+      <c r="AW12" s="76"/>
+      <c r="AX12" s="74"/>
+      <c r="AY12" s="75"/>
+      <c r="AZ12" s="76"/>
+      <c r="BA12" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="BB8" s="102"/>
-      <c r="BC8" s="102"/>
-      <c r="BD8" s="102"/>
-      <c r="BE8" s="102"/>
-      <c r="BF8" s="102"/>
-      <c r="BG8" s="102"/>
-      <c r="BH8" s="103"/>
-      <c r="BI8" s="10"/>
-    </row>
-    <row r="9" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="61"/>
-      <c r="AK9" s="61"/>
-      <c r="AL9" s="61"/>
-      <c r="AM9" s="62"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="55"/>
-      <c r="AP9" s="55"/>
-      <c r="AQ9" s="56"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="55"/>
-      <c r="AT9" s="56"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="55"/>
-      <c r="AW9" s="56"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="55"/>
-      <c r="AZ9" s="56"/>
-      <c r="BA9" s="78"/>
-      <c r="BB9" s="79"/>
-      <c r="BC9" s="79"/>
-      <c r="BD9" s="79"/>
-      <c r="BE9" s="79"/>
-      <c r="BF9" s="79"/>
-      <c r="BG9" s="79"/>
-      <c r="BH9" s="80"/>
-      <c r="BI9" s="10"/>
-    </row>
-    <row r="10" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A10" s="63">
-        <v>1</v>
-      </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="58"/>
-      <c r="AM10" s="59"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="52"/>
-      <c r="AP10" s="52"/>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS10" s="52"/>
-      <c r="AT10" s="53"/>
-      <c r="AU10" s="51"/>
-      <c r="AV10" s="52"/>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="51"/>
-      <c r="AY10" s="52"/>
-      <c r="AZ10" s="53"/>
-      <c r="BA10" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB10" s="102"/>
-      <c r="BC10" s="102"/>
-      <c r="BD10" s="102"/>
-      <c r="BE10" s="102"/>
-      <c r="BF10" s="102"/>
-      <c r="BG10" s="102"/>
-      <c r="BH10" s="103"/>
-      <c r="BI10" s="10"/>
-    </row>
-    <row r="11" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="61"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="61"/>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="61"/>
-      <c r="AK11" s="61"/>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="62"/>
-      <c r="AN11" s="54"/>
-      <c r="AO11" s="55"/>
-      <c r="AP11" s="55"/>
-      <c r="AQ11" s="56"/>
-      <c r="AR11" s="54"/>
-      <c r="AS11" s="55"/>
-      <c r="AT11" s="56"/>
-      <c r="AU11" s="54"/>
-      <c r="AV11" s="55"/>
-      <c r="AW11" s="56"/>
-      <c r="AX11" s="54"/>
-      <c r="AY11" s="55"/>
-      <c r="AZ11" s="56"/>
-      <c r="BA11" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB11" s="105"/>
-      <c r="BC11" s="105"/>
-      <c r="BD11" s="105"/>
-      <c r="BE11" s="105"/>
-      <c r="BF11" s="105"/>
-      <c r="BG11" s="105"/>
-      <c r="BH11" s="106"/>
-      <c r="BI11" s="10"/>
-    </row>
-    <row r="12" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A12" s="63">
-        <v>1</v>
-      </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="52"/>
-      <c r="AP12" s="52"/>
-      <c r="AQ12" s="53"/>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="53"/>
-      <c r="AU12" s="51"/>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="53"/>
-      <c r="BA12" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB12" s="102"/>
-      <c r="BC12" s="102"/>
-      <c r="BD12" s="102"/>
-      <c r="BE12" s="102"/>
-      <c r="BF12" s="102"/>
-      <c r="BG12" s="102"/>
-      <c r="BH12" s="103"/>
+      <c r="BB12" s="106"/>
+      <c r="BC12" s="106"/>
+      <c r="BD12" s="106"/>
+      <c r="BE12" s="106"/>
+      <c r="BF12" s="106"/>
+      <c r="BG12" s="106"/>
+      <c r="BH12" s="107"/>
       <c r="BI12" s="10"/>
     </row>
     <row r="13" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="61"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="61"/>
-      <c r="AI13" s="61"/>
-      <c r="AJ13" s="61"/>
-      <c r="AK13" s="61"/>
-      <c r="AL13" s="61"/>
-      <c r="AM13" s="62"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="55"/>
-      <c r="AP13" s="55"/>
-      <c r="AQ13" s="56"/>
-      <c r="AR13" s="54"/>
-      <c r="AS13" s="55"/>
-      <c r="AT13" s="56"/>
-      <c r="AU13" s="54"/>
-      <c r="AV13" s="55"/>
-      <c r="AW13" s="56"/>
-      <c r="AX13" s="54"/>
-      <c r="AY13" s="55"/>
-      <c r="AZ13" s="56"/>
-      <c r="BA13" s="78"/>
-      <c r="BB13" s="79"/>
-      <c r="BC13" s="79"/>
-      <c r="BD13" s="79"/>
-      <c r="BE13" s="79"/>
-      <c r="BF13" s="79"/>
-      <c r="BG13" s="79"/>
-      <c r="BH13" s="80"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="69"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="77"/>
+      <c r="AO13" s="78"/>
+      <c r="AP13" s="78"/>
+      <c r="AQ13" s="79"/>
+      <c r="AR13" s="77"/>
+      <c r="AS13" s="78"/>
+      <c r="AT13" s="79"/>
+      <c r="AU13" s="77"/>
+      <c r="AV13" s="78"/>
+      <c r="AW13" s="79"/>
+      <c r="AX13" s="77"/>
+      <c r="AY13" s="78"/>
+      <c r="AZ13" s="79"/>
+      <c r="BA13" s="82"/>
+      <c r="BB13" s="83"/>
+      <c r="BC13" s="83"/>
+      <c r="BD13" s="83"/>
+      <c r="BE13" s="83"/>
+      <c r="BF13" s="83"/>
+      <c r="BG13" s="83"/>
+      <c r="BH13" s="84"/>
       <c r="BI13" s="10"/>
     </row>
     <row r="14" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A14" s="63">
-        <v>1</v>
-      </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="58"/>
-      <c r="AM14" s="59"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="52"/>
-      <c r="AQ14" s="53"/>
-      <c r="AR14" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS14" s="52"/>
-      <c r="AT14" s="53"/>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="53"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="53"/>
-      <c r="BA14" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB14" s="102"/>
-      <c r="BC14" s="102"/>
-      <c r="BD14" s="102"/>
-      <c r="BE14" s="102"/>
-      <c r="BF14" s="102"/>
-      <c r="BG14" s="102"/>
-      <c r="BH14" s="103"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="75"/>
+      <c r="AQ14" s="76"/>
+      <c r="AR14" s="74"/>
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="76"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="76"/>
+      <c r="AX14" s="74"/>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="76"/>
+      <c r="BA14" s="105"/>
+      <c r="BB14" s="106"/>
+      <c r="BC14" s="106"/>
+      <c r="BD14" s="106"/>
+      <c r="BE14" s="106"/>
+      <c r="BF14" s="106"/>
+      <c r="BG14" s="106"/>
+      <c r="BH14" s="107"/>
       <c r="BI14" s="10"/>
     </row>
     <row r="15" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="61"/>
-      <c r="AE15" s="61"/>
-      <c r="AF15" s="61"/>
-      <c r="AG15" s="61"/>
-      <c r="AH15" s="61"/>
-      <c r="AI15" s="61"/>
-      <c r="AJ15" s="61"/>
-      <c r="AK15" s="61"/>
-      <c r="AL15" s="61"/>
-      <c r="AM15" s="62"/>
-      <c r="AN15" s="54"/>
-      <c r="AO15" s="55"/>
-      <c r="AP15" s="55"/>
-      <c r="AQ15" s="56"/>
-      <c r="AR15" s="54"/>
-      <c r="AS15" s="55"/>
-      <c r="AT15" s="56"/>
-      <c r="AU15" s="54"/>
-      <c r="AV15" s="55"/>
-      <c r="AW15" s="56"/>
-      <c r="AX15" s="54"/>
-      <c r="AY15" s="55"/>
-      <c r="AZ15" s="56"/>
-      <c r="BA15" s="104" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB15" s="105"/>
-      <c r="BC15" s="105"/>
-      <c r="BD15" s="105"/>
-      <c r="BE15" s="105"/>
-      <c r="BF15" s="105"/>
-      <c r="BG15" s="105"/>
-      <c r="BH15" s="106"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="55"/>
+      <c r="AN15" s="77"/>
+      <c r="AO15" s="78"/>
+      <c r="AP15" s="78"/>
+      <c r="AQ15" s="79"/>
+      <c r="AR15" s="77"/>
+      <c r="AS15" s="78"/>
+      <c r="AT15" s="79"/>
+      <c r="AU15" s="77"/>
+      <c r="AV15" s="78"/>
+      <c r="AW15" s="79"/>
+      <c r="AX15" s="77"/>
+      <c r="AY15" s="78"/>
+      <c r="AZ15" s="79"/>
+      <c r="BA15" s="82"/>
+      <c r="BB15" s="83"/>
+      <c r="BC15" s="83"/>
+      <c r="BD15" s="83"/>
+      <c r="BE15" s="83"/>
+      <c r="BF15" s="83"/>
+      <c r="BG15" s="83"/>
+      <c r="BH15" s="84"/>
       <c r="BI15" s="10"/>
     </row>
   </sheetData>
@@ -5806,21 +5667,6 @@
     <mergeCell ref="H12:L13"/>
     <mergeCell ref="M12:S13"/>
     <mergeCell ref="AR10:AT11"/>
-    <mergeCell ref="T14:AB15"/>
-    <mergeCell ref="AU10:AW11"/>
-    <mergeCell ref="AX10:AZ11"/>
-    <mergeCell ref="AN10:AQ11"/>
-    <mergeCell ref="T12:AB13"/>
-    <mergeCell ref="T10:AB11"/>
-    <mergeCell ref="AC10:AM11"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="H10:L11"/>
-    <mergeCell ref="M10:S11"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:G15"/>
-    <mergeCell ref="H14:L15"/>
-    <mergeCell ref="M14:S15"/>
     <mergeCell ref="AN14:AQ15"/>
     <mergeCell ref="AR14:AT15"/>
     <mergeCell ref="AU14:AW15"/>
@@ -5830,20 +5676,32 @@
     <mergeCell ref="AU12:AW13"/>
     <mergeCell ref="AX12:AZ13"/>
     <mergeCell ref="AN12:AQ13"/>
+    <mergeCell ref="AU10:AW11"/>
+    <mergeCell ref="AX10:AZ11"/>
+    <mergeCell ref="AN10:AQ11"/>
+    <mergeCell ref="T12:AB13"/>
+    <mergeCell ref="T10:AB11"/>
+    <mergeCell ref="AC10:AM11"/>
     <mergeCell ref="AC14:AM15"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="H10:L11"/>
+    <mergeCell ref="M10:S11"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="H14:L15"/>
+    <mergeCell ref="M14:S15"/>
+    <mergeCell ref="T14:AB15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR8 AR10 AR12 AR14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR8 AR10 AR14 AR12">
       <formula1>"N/A,OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="BA8:BH8" location="Evidance!A2" display="Hình 1"/>
-    <hyperlink ref="BA10:BH10" location="Evidance!A20" display="Hình2"/>
-    <hyperlink ref="BA11:BH11" location="Evidance!A46" display="Hình3"/>
-    <hyperlink ref="BA12:BH12" location="Evidance!A64" display="Hình4"/>
-    <hyperlink ref="BA14:BH14" location="Evidance!A103" display="Hình 5"/>
-    <hyperlink ref="BA15:BH15" location="Evidance!A133" display="Hình6"/>
+    <hyperlink ref="BA8:BH8" location="Evidance!A3" display="Hình 1"/>
+    <hyperlink ref="BA10:BH10" location="Evidance!A23" display="Hình 2"/>
+    <hyperlink ref="BA12:BH12" location="Evidance!A51" display="Hình 3"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="15" orientation="portrait" r:id="rId1"/>
@@ -5864,60 +5722,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BA133"/>
+  <dimension ref="A3:A116"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="45" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="1" width="13.85546875" style="46" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:53" ht="23.25">
-      <c r="A2" s="46" t="s">
+    <row r="3" spans="1:1" ht="23.25">
+      <c r="A3" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="23.25">
+      <c r="A23" s="45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="23.25">
+      <c r="A51" s="45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
-      <c r="AC8" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="AX8" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53">
-      <c r="BA10" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="23.25">
-      <c r="A20" s="46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="23.25">
-      <c r="A46" s="47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="23.25">
-      <c r="A67" s="46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="23.25">
-      <c r="A103" s="46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="23.25">
-      <c r="A133" s="46" t="s">
-        <v>76</v>
-      </c>
+    <row r="87" spans="1:1" ht="23.25">
+      <c r="A87" s="141"/>
+    </row>
+    <row r="116" spans="1:1" ht="23.25">
+      <c r="A116" s="141"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5930,8 +5766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6113,42 +5949,42 @@
     </row>
     <row r="24" spans="3:13">
       <c r="C24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="3:13">
       <c r="D25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="3:13">
       <c r="D26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="3:13">
       <c r="D27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="3:13">
       <c r="D28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="3:13">
       <c r="D29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="3:13">
       <c r="D30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="3:13">
       <c r="D31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
